--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_31.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>856583.5182846962</v>
+        <v>860795.4760560673</v>
       </c>
     </row>
     <row r="7">
@@ -26314,10 +26314,10 @@
         <v>634939.1625057049</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057046</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057048</v>
+        <v>634939.1625057049</v>
       </c>
       <c r="E2" t="n">
         <v>177196.8496322885</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>137467.229375992</v>
+        <v>138160.8314035952</v>
       </c>
       <c r="C6" t="n">
-        <v>137467.2293759916</v>
+        <v>138160.8314035952</v>
       </c>
       <c r="D6" t="n">
-        <v>137467.2293759919</v>
+        <v>138160.8314035952</v>
       </c>
       <c r="E6" t="n">
-        <v>-30006.1785962393</v>
+        <v>-29595.14647667952</v>
       </c>
       <c r="F6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="G6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="H6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="I6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="J6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="K6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="L6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="M6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="N6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="O6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
       <c r="P6" t="n">
-        <v>103093.8214037608</v>
+        <v>103504.8535233205</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>860795.4760560673</v>
+        <v>874521.8341934853</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,16 +26521,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138160.8314035952</v>
+        <v>138160.8314035951</v>
       </c>
       <c r="C6" t="n">
-        <v>138160.8314035952</v>
+        <v>138160.8314035951</v>
       </c>
       <c r="D6" t="n">
-        <v>138160.8314035952</v>
+        <v>138160.8314035951</v>
       </c>
       <c r="E6" t="n">
-        <v>-29595.14647667952</v>
+        <v>-29595.14647667956</v>
       </c>
       <c r="F6" t="n">
         <v>103504.8535233205</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>874521.8341934853</v>
+        <v>790736.4324318604</v>
       </c>
     </row>
     <row r="7">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="C2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057047</v>
       </c>
       <c r="D2" t="n">
-        <v>634939.1625057049</v>
+        <v>634939.1625057048</v>
       </c>
       <c r="E2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="F2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="G2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="H2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="I2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="J2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="K2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="L2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="M2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="N2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="O2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
       <c r="P2" t="n">
-        <v>177196.8496322885</v>
+        <v>177196.8496322886</v>
       </c>
     </row>
     <row r="3">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>138160.8314035951</v>
+        <v>138116.6956249138</v>
       </c>
       <c r="C6" t="n">
-        <v>138160.8314035951</v>
+        <v>138116.6956249138</v>
       </c>
       <c r="D6" t="n">
-        <v>138160.8314035951</v>
+        <v>138116.6956249139</v>
       </c>
       <c r="E6" t="n">
-        <v>-29595.14647667956</v>
+        <v>-44405.16331579338</v>
       </c>
       <c r="F6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="G6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="H6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="I6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="J6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="K6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="L6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="M6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="N6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="O6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
       <c r="P6" t="n">
-        <v>103504.8535233205</v>
+        <v>88694.83668420669</v>
       </c>
     </row>
   </sheetData>
